--- a/DateBase/orders/Dang Nguyen_2025-7-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-27.xlsx
@@ -879,6 +879,9 @@
       <c r="G2" t="str">
         <v>020551020201052055516852881216105510551010105155666510555151010510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
